--- a/biology/Botanique/Côte_(botanique)/Côte_(botanique).xlsx
+++ b/biology/Botanique/Côte_(botanique)/Côte_(botanique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%B4te_(botanique)</t>
+          <t>Côte_(botanique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En botanique, les côtes sont des arêtes parcourant certains fruits et représentant des nervures ou des décurrences[1].
-Une côte primaire est une côte du fruit d'une Ombellifère naissant au droit d'un faisceau cribro-vasculaire. Elle est dite « carénale » lorsqu'elle est opposée à la commissure du fruit, « suturale » lorsqu'elle naît au voisinage de la commissure. Une côte secondaire est une côte du fruit d'une Ombellifère naissant entre les côtes primaires, parfois vis-à-vis d'une bandelette, et constituée d'une masse de parenchyme ne contenant pas de faisceau cribro-vasculaire[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En botanique, les côtes sont des arêtes parcourant certains fruits et représentant des nervures ou des décurrences.
+Une côte primaire est une côte du fruit d'une Ombellifère naissant au droit d'un faisceau cribro-vasculaire. Elle est dite « carénale » lorsqu'elle est opposée à la commissure du fruit, « suturale » lorsqu'elle naît au voisinage de la commissure. Une côte secondaire est une côte du fruit d'une Ombellifère naissant entre les côtes primaires, parfois vis-à-vis d'une bandelette, et constituée d'une masse de parenchyme ne contenant pas de faisceau cribro-vasculaire.
 			Fruits de Grande Cigüe (Conium maculatum).
 			Fruits de Lomatium à gros fruits (Lomatium macrocarpum).
 			Fruits de Cumin (Cuminum cyminum).
